--- a/complaindata/202011.xlsx
+++ b/complaindata/202011.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -517,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="H3" sqref="H3:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
     <col min="6" max="6" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -562,7 +562,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -584,8 +584,12 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>D3+E3</f>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -607,8 +611,12 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" ref="H4:H14" si="0">D4+E4</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -630,8 +638,12 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -653,8 +665,12 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -676,8 +692,12 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -699,8 +719,12 @@
       <c r="G8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -722,8 +746,12 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -745,8 +773,12 @@
       <c r="G10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -768,8 +800,12 @@
       <c r="G11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -791,8 +827,12 @@
       <c r="G12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -814,8 +854,12 @@
       <c r="G13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -836,6 +880,10 @@
       </c>
       <c r="G14" t="s">
         <v>26</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
